--- a/Compass.Wpf/bin/Debug/net6.0-windows/PackingInfo.xlsx
+++ b/Compass.Wpf/bin/Debug/net6.0-windows/PackingInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916A99D6-28C1-42EE-82C9-2D050546034B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C4D8DA-F0B0-40A3-A8D3-5CE41922A5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDC187B9-F46D-4964-9A0E-541881F2A76B}"/>
   </bookViews>
@@ -450,6 +450,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,27 +490,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -812,14 +812,14 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.25" style="1"/>
@@ -1353,7 +1353,7 @@
       <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -1364,33 +1364,33 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="16"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="17"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
@@ -1399,35 +1399,35 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
